--- a/BackTest/2019-10-27 BackTest EOS.xlsx
+++ b/BackTest/2019-10-27 BackTest EOS.xlsx
@@ -8046,13 +8046,17 @@
         <v>3549</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3546</v>
+      </c>
+      <c r="K219" t="n">
+        <v>3546</v>
+      </c>
       <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
@@ -8081,14 +8085,22 @@
         <v>3549.333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3551</v>
+      </c>
+      <c r="K220" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +8128,22 @@
         <v>3549</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3551</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8177,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8256,18 +8294,18 @@
         <v>3534.333333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>3526</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>3546</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -8297,15 +8335,15 @@
         <v>3531.333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>3524</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>3546</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,15 +8376,15 @@
         <v>3527.666666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>3524</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>3546</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,9 +8423,11 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>3524</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+        <v>3523</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3546</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,7 +8468,9 @@
       <c r="J229" t="n">
         <v>3523</v>
       </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>3546</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8467,9 +8509,11 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>3524</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+        <v>3521</v>
+      </c>
+      <c r="K230" t="n">
+        <v>3546</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8508,7 +8552,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3546</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8541,15 +8587,15 @@
         <v>3520</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>3521</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>3546</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,15 +8628,15 @@
         <v>3520.333333333333</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>3521</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>3546</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,15 +8669,15 @@
         <v>3520</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>3522</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>3546</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,7 +8718,9 @@
       <c r="J235" t="n">
         <v>3517</v>
       </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>3546</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,7 +8761,9 @@
       <c r="J236" t="n">
         <v>3513</v>
       </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>3546</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,9 +8802,11 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>3505</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+        <v>3503</v>
+      </c>
+      <c r="K237" t="n">
+        <v>3546</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8793,7 +8845,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>3546</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +8886,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>3546</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,7 +8927,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>3546</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,7 +8968,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>3546</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,7 +9009,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>3546</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,7 +9050,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>3546</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9027,7 +9091,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>3546</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,7 +9132,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>3546</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,7 +9173,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>3546</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,7 +9214,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>3546</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,7 +9255,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>3546</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,7 +9296,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>3546</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,7 +9337,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>3546</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,7 +9378,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>3546</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,7 +9419,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>3546</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9378,7 +9460,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>3546</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9417,7 +9501,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>3546</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,7 +9542,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>3546</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,7 +9583,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>3546</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,7 +9624,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>3546</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,7 +9665,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>3546</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,7 +9706,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>3546</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,7 +9747,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>3546</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9690,7 +9788,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>3546</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,7 +9829,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>3546</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,7 +9870,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>3546</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9911,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>3546</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +9952,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>3546</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +9993,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>3546</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,7 +10034,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>3546</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9963,7 +10075,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>3546</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10002,7 +10116,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>3546</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,7 +10157,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>3546</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,7 +10198,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>3546</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,7 +10239,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>3546</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,7 +10280,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>3546</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,7 +10321,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>3546</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,7 +10362,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>3546</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,7 +10403,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>3546</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10314,7 +10444,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>3546</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10353,7 +10485,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>3546</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,7 +10526,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>3546</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,7 +10567,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>3546</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +10608,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>3546</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,7 +10649,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>3546</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,7 +10690,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>3546</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +10731,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>3546</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10626,7 +10772,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>3546</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,7 +10813,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>3546</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10704,7 +10854,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>3546</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10743,7 +10895,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>3546</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10782,7 +10936,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>3546</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,7 +10977,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>3546</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,7 +11018,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>3546</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,7 +11059,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>3546</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,7 +11100,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>3546</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10977,7 +11141,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>3546</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,7 +11182,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>3546</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,7 +11223,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>3546</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,7 +11264,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>3546</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11133,7 +11305,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>3546</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,7 +11346,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>3546</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,7 +11387,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>3546</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,7 +11428,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>3546</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,7 +11469,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>3546</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,7 +11510,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>3546</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11367,7 +11551,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>3546</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11406,7 +11592,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>3546</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11445,7 +11633,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>3546</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,7 +11674,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>3546</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,7 +11715,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>3546</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11562,7 +11756,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>3546</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11601,7 +11797,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>3546</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,7 +11838,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>3546</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,7 +11879,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>3546</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11718,7 +11920,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>3546</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,7 +11961,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>3546</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11796,7 +12002,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>3546</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11835,7 +12043,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>3546</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,7 +12084,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>3546</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,7 +12125,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>3546</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11952,7 +12166,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>3546</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11991,7 +12207,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>3546</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12030,7 +12248,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>3546</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12069,7 +12289,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>3546</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,7 +12330,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>3546</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12147,7 +12371,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>3546</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12186,7 +12412,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>3546</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,7 +12453,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>3546</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,7 +12494,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>3546</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12303,7 +12535,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>3546</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,7 +12576,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>3546</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12381,7 +12617,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>3546</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12420,7 +12658,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>3546</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,7 +12699,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>3546</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12498,7 +12740,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>3546</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12537,7 +12781,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>3546</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12576,7 +12822,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>3546</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12615,7 +12863,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>3546</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,7 +12904,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>3546</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,7 +12945,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>3546</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,7 +12986,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>3546</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12771,7 +13027,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>3546</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12810,7 +13068,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>3546</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,7 +13109,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>3546</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12888,7 +13150,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>3546</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,7 +13191,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>3546</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12966,7 +13232,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>3546</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,7 +13273,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>3546</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13044,7 +13314,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>3546</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,7 +13355,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>3546</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,7 +13396,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>3546</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13161,7 +13437,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>3546</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13200,7 +13478,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>3546</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,7 +13519,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>3546</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +13560,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>3546</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,7 +13601,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>3546</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13356,7 +13642,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>3546</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,7 +13683,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>3546</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13434,7 +13724,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>3546</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,7 +13765,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>3546</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13512,7 +13806,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>3546</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,7 +13847,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>3546</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,7 +13888,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>3546</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,7 +13929,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>3546</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,7 +13970,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>3546</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,7 +14011,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>3546</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,7 +14052,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>3546</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,7 +14093,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>3546</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13824,7 +14134,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>3546</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13863,7 +14175,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>3546</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +14216,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>3546</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,7 +14257,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>3546</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13980,7 +14298,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>3546</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,7 +14339,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>3546</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,7 +14380,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>3546</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,7 +14421,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>3546</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14136,7 +14462,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>3546</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14175,7 +14503,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>3546</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14214,7 +14544,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>3546</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14253,7 +14585,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>3546</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,7 +14626,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>3546</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14331,7 +14667,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>3546</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,7 +14708,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>3546</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14409,7 +14749,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>3546</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,7 +14790,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>3546</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,7 +14831,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>3546</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14526,7 +14872,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>3546</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14565,7 +14913,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>3546</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14604,7 +14954,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>3546</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14643,7 +14995,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>3546</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14682,7 +15036,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>3546</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,7 +15077,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>3546</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,7 +15118,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>3546</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14799,7 +15159,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>3546</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14838,7 +15200,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>3546</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,7 +15241,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>3546</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14916,7 +15282,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>3546</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14955,7 +15323,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>3546</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14994,7 +15364,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>3546</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,7 +15405,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>3546</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,7 +15446,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>3546</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,7 +15487,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>3546</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,7 +15528,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>3546</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15189,7 +15569,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>3546</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15228,7 +15610,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>3546</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,7 +15651,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>3546</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,7 +15692,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>3546</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +15733,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>3546</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15384,7 +15774,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>3546</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15423,7 +15815,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>3546</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,7 +15856,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>3546</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15501,7 +15897,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>3546</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15540,7 +15938,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>3546</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15579,7 +15979,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>3546</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,7 +16020,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>3546</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,7 +16061,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>3546</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15696,7 +16102,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>3546</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,7 +16143,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>3546</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15774,7 +16184,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>3546</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15813,7 +16225,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>3546</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15852,7 +16266,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>3546</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15891,7 +16307,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>3546</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15930,7 +16348,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>3546</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,7 +16389,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>3546</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,7 +16430,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>3546</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16047,7 +16471,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>3546</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,7 +16512,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>3546</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16125,7 +16553,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>3546</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16164,7 +16594,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>3546</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16203,7 +16635,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>3546</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,7 +16676,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>3546</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16281,7 +16717,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>3546</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16320,7 +16758,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>3546</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16359,7 +16799,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>3546</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16398,7 +16840,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>3546</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16437,7 +16881,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>3546</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,7 +16922,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>3546</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16515,7 +16963,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>3546</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16554,7 +17004,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>3546</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16593,7 +17045,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>3546</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16632,7 +17086,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>3546</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,7 +17127,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>3546</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>3546</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +17209,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>3546</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,7 +17250,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>3546</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,7 +17291,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>3546</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16866,7 +17332,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>3546</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,7 +17373,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>3546</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16944,7 +17414,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>3546</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16983,7 +17455,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>3546</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17022,7 +17496,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>3546</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,7 +17537,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>3546</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17100,7 +17578,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>3546</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,7 +17619,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>3546</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17178,7 +17660,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>3546</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17217,7 +17701,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>3546</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,7 +17742,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>3546</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,7 +17783,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>3546</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17334,7 +17824,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>3546</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17373,7 +17865,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>3546</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17412,7 +17906,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>3546</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17451,7 +17947,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>3546</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17490,7 +17988,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>3546</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17529,7 +18029,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>3546</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,7 +18070,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>3546</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17607,7 +18111,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>3546</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17646,7 +18152,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>3546</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17685,7 +18193,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>3546</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17724,7 +18234,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>3546</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17763,7 +18275,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>3546</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17802,7 +18316,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>3546</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17841,7 +18357,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>3546</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17880,7 +18398,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>3546</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,7 +18439,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>3546</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17958,7 +18480,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>3546</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17997,7 +18521,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>3546</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18036,7 +18562,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>3546</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18075,7 +18603,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>3546</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18114,7 +18644,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>3546</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18153,7 +18685,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>3546</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18192,7 +18726,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>3546</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +18767,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>3546</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18270,7 +18808,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>3546</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18309,7 +18849,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>3546</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18348,7 +18890,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>3546</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18387,7 +18931,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>3546</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18426,7 +18972,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>3546</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18465,7 +19013,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>3546</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18504,7 +19054,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>3546</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18543,7 +19095,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>3546</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18582,7 +19136,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>3546</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18621,7 +19177,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>3546</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18660,7 +19218,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>3546</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18699,7 +19259,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>3546</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18738,7 +19300,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>3546</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18777,7 +19341,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>3546</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18816,7 +19382,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>3546</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,365 +19420,429 @@
         <v>0</v>
       </c>
       <c r="I496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>3546</v>
+      </c>
       <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3680</v>
+      </c>
+      <c r="C497" t="n">
+        <v>3681</v>
+      </c>
+      <c r="D497" t="n">
+        <v>3681</v>
+      </c>
+      <c r="E497" t="n">
+        <v>3680</v>
+      </c>
+      <c r="F497" t="n">
+        <v>519.4266</v>
+      </c>
+      <c r="G497" t="n">
+        <v>3679</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3677</v>
+      </c>
+      <c r="C498" t="n">
+        <v>3678</v>
+      </c>
+      <c r="D498" t="n">
+        <v>3678</v>
+      </c>
+      <c r="E498" t="n">
+        <v>3672</v>
+      </c>
+      <c r="F498" t="n">
+        <v>6284.5584</v>
+      </c>
+      <c r="G498" t="n">
+        <v>3679</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3677</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3683</v>
+      </c>
+      <c r="D499" t="n">
+        <v>3683</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3677</v>
+      </c>
+      <c r="F499" t="n">
+        <v>12428.953</v>
+      </c>
+      <c r="G499" t="n">
+        <v>3680.666666666667</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3682</v>
+      </c>
+      <c r="C500" t="n">
+        <v>3689</v>
+      </c>
+      <c r="D500" t="n">
+        <v>3689</v>
+      </c>
+      <c r="E500" t="n">
+        <v>3680</v>
+      </c>
+      <c r="F500" t="n">
+        <v>6314.4972</v>
+      </c>
+      <c r="G500" t="n">
+        <v>3683.333333333333</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3689</v>
+      </c>
+      <c r="C501" t="n">
+        <v>3693</v>
+      </c>
+      <c r="D501" t="n">
+        <v>3699</v>
+      </c>
+      <c r="E501" t="n">
+        <v>3689</v>
+      </c>
+      <c r="F501" t="n">
+        <v>5161.6969</v>
+      </c>
+      <c r="G501" t="n">
+        <v>3688.333333333333</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3694</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3689</v>
+      </c>
+      <c r="D502" t="n">
+        <v>3699</v>
+      </c>
+      <c r="E502" t="n">
+        <v>3689</v>
+      </c>
+      <c r="F502" t="n">
+        <v>3985.0722</v>
+      </c>
+      <c r="G502" t="n">
+        <v>3690.333333333333</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3690</v>
+      </c>
+      <c r="C503" t="n">
+        <v>3689</v>
+      </c>
+      <c r="D503" t="n">
+        <v>3695</v>
+      </c>
+      <c r="E503" t="n">
+        <v>3689</v>
+      </c>
+      <c r="F503" t="n">
+        <v>686.8203</v>
+      </c>
+      <c r="G503" t="n">
+        <v>3690.333333333333</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3689</v>
+      </c>
+      <c r="C504" t="n">
+        <v>3685</v>
+      </c>
+      <c r="D504" t="n">
+        <v>3693</v>
+      </c>
+      <c r="E504" t="n">
+        <v>3685</v>
+      </c>
+      <c r="F504" t="n">
+        <v>15640.1702</v>
+      </c>
+      <c r="G504" t="n">
+        <v>3687.666666666667</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3682</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3683</v>
+      </c>
+      <c r="D505" t="n">
+        <v>3687</v>
+      </c>
+      <c r="E505" t="n">
+        <v>3682</v>
+      </c>
+      <c r="F505" t="n">
+        <v>4256.1855</v>
+      </c>
+      <c r="G505" t="n">
+        <v>3685.666666666667</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3683</v>
+      </c>
+      <c r="C506" t="n">
+        <v>3689</v>
+      </c>
+      <c r="D506" t="n">
+        <v>3689</v>
+      </c>
+      <c r="E506" t="n">
+        <v>3683</v>
+      </c>
+      <c r="F506" t="n">
+        <v>828.3576</v>
+      </c>
+      <c r="G506" t="n">
+        <v>3685.666666666667</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1</v>
+      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>3546</v>
+      </c>
+      <c r="L506" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M496" t="inlineStr"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>3680</v>
-      </c>
-      <c r="C497" t="n">
-        <v>3681</v>
-      </c>
-      <c r="D497" t="n">
-        <v>3681</v>
-      </c>
-      <c r="E497" t="n">
-        <v>3680</v>
-      </c>
-      <c r="F497" t="n">
-        <v>519.4266</v>
-      </c>
-      <c r="G497" t="n">
-        <v>3679</v>
-      </c>
-      <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="n">
-        <v>1</v>
-      </c>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
-      <c r="M497" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>3677</v>
-      </c>
-      <c r="C498" t="n">
-        <v>3678</v>
-      </c>
-      <c r="D498" t="n">
-        <v>3678</v>
-      </c>
-      <c r="E498" t="n">
-        <v>3672</v>
-      </c>
-      <c r="F498" t="n">
-        <v>6284.5584</v>
-      </c>
-      <c r="G498" t="n">
-        <v>3679</v>
-      </c>
-      <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="n">
-        <v>1</v>
-      </c>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
-      <c r="M498" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>3677</v>
-      </c>
-      <c r="C499" t="n">
-        <v>3683</v>
-      </c>
-      <c r="D499" t="n">
-        <v>3683</v>
-      </c>
-      <c r="E499" t="n">
-        <v>3677</v>
-      </c>
-      <c r="F499" t="n">
-        <v>12428.953</v>
-      </c>
-      <c r="G499" t="n">
-        <v>3680.666666666667</v>
-      </c>
-      <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="n">
-        <v>0</v>
-      </c>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
-      <c r="M499" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>3682</v>
-      </c>
-      <c r="C500" t="n">
-        <v>3689</v>
-      </c>
-      <c r="D500" t="n">
-        <v>3689</v>
-      </c>
-      <c r="E500" t="n">
-        <v>3680</v>
-      </c>
-      <c r="F500" t="n">
-        <v>6314.4972</v>
-      </c>
-      <c r="G500" t="n">
-        <v>3683.333333333333</v>
-      </c>
-      <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="n">
-        <v>0</v>
-      </c>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
-      <c r="M500" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>3689</v>
-      </c>
-      <c r="C501" t="n">
-        <v>3693</v>
-      </c>
-      <c r="D501" t="n">
-        <v>3699</v>
-      </c>
-      <c r="E501" t="n">
-        <v>3689</v>
-      </c>
-      <c r="F501" t="n">
-        <v>5161.6969</v>
-      </c>
-      <c r="G501" t="n">
-        <v>3688.333333333333</v>
-      </c>
-      <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="n">
-        <v>0</v>
-      </c>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
-      <c r="M501" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>3694</v>
-      </c>
-      <c r="C502" t="n">
-        <v>3689</v>
-      </c>
-      <c r="D502" t="n">
-        <v>3699</v>
-      </c>
-      <c r="E502" t="n">
-        <v>3689</v>
-      </c>
-      <c r="F502" t="n">
-        <v>3985.0722</v>
-      </c>
-      <c r="G502" t="n">
-        <v>3690.333333333333</v>
-      </c>
-      <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="n">
-        <v>0</v>
-      </c>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
-      <c r="M502" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>3690</v>
-      </c>
-      <c r="C503" t="n">
-        <v>3689</v>
-      </c>
-      <c r="D503" t="n">
-        <v>3695</v>
-      </c>
-      <c r="E503" t="n">
-        <v>3689</v>
-      </c>
-      <c r="F503" t="n">
-        <v>686.8203</v>
-      </c>
-      <c r="G503" t="n">
-        <v>3690.333333333333</v>
-      </c>
-      <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="n">
-        <v>0</v>
-      </c>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
-      <c r="M503" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>3689</v>
-      </c>
-      <c r="C504" t="n">
-        <v>3685</v>
-      </c>
-      <c r="D504" t="n">
-        <v>3693</v>
-      </c>
-      <c r="E504" t="n">
-        <v>3685</v>
-      </c>
-      <c r="F504" t="n">
-        <v>15640.1702</v>
-      </c>
-      <c r="G504" t="n">
-        <v>3687.666666666667</v>
-      </c>
-      <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="n">
-        <v>0</v>
-      </c>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
-      <c r="M504" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>3682</v>
-      </c>
-      <c r="C505" t="n">
-        <v>3683</v>
-      </c>
-      <c r="D505" t="n">
-        <v>3687</v>
-      </c>
-      <c r="E505" t="n">
-        <v>3682</v>
-      </c>
-      <c r="F505" t="n">
-        <v>4256.1855</v>
-      </c>
-      <c r="G505" t="n">
-        <v>3685.666666666667</v>
-      </c>
-      <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="n">
-        <v>0</v>
-      </c>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
-      <c r="M505" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>3683</v>
-      </c>
-      <c r="C506" t="n">
-        <v>3689</v>
-      </c>
-      <c r="D506" t="n">
-        <v>3689</v>
-      </c>
-      <c r="E506" t="n">
-        <v>3683</v>
-      </c>
-      <c r="F506" t="n">
-        <v>828.3576</v>
-      </c>
-      <c r="G506" t="n">
-        <v>3685.666666666667</v>
-      </c>
-      <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="n">
-        <v>0</v>
-      </c>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
-        <v>1</v>
+        <v>1.035327129159617</v>
       </c>
     </row>
     <row r="507">
@@ -34709,7 +35341,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
@@ -34744,7 +35376,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
@@ -34779,7 +35411,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
@@ -34814,7 +35446,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
@@ -38139,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr"/>
@@ -38174,7 +38806,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr"/>
@@ -38209,7 +38841,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr"/>
@@ -38769,7 +39401,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr"/>
@@ -38804,7 +39436,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr"/>
@@ -38839,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr"/>
